--- a/data/long_razon/P24_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_6-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>129,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 43,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 349,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 59,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,66; -36,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 104,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -15,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,4; -18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 136,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -5,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-27,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 201,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 53,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 22,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 41,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,57; -1,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 76,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 29,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-40,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-32,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-63,31; -5,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 84,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 74,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,01; -12,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 31,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 39,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 54,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 57,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 91,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 108,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 32,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 65,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 45,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>102,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>108,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>104,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,1; 197,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 81,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 112,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,41; 215,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 44,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,67; 178,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 29,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 83,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 248,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 79,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 146,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 178,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 58,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 90,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,85; 151,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 52,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32,41; 91,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 31,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,94; 48,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 9,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,96; 59,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 16,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_6-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.06562530705381875</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7999402335743998</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.01822584123857768</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.09841143052336856</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.8358424815237673</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6324145529205331</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2541615648519255</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.4390373280585367</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1864293451178684</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.008343048637253147</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.4304816871003315</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5038538206578672</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2386477529338829</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.1406754073822457</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.3357737916124858</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4484437956874296</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.133364420369106</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3880095397720782</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4180221455570949</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.140536089842938</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7827227167902641</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2291706102224165</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6447561995239269</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2772404787146233</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.452880234350213</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5972630733623657</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.0274350576163553</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4533696266564645</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.2359885412915986</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1778084898735107</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.5767874779955231</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.578763376493055</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8247637674355797</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.094170381374133</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.230720601641587</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.4187191593370398</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.014041692586667</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.1679515099233513</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.9039785751164978</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6778518948427203</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.2146380787900794</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.195910985381943</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.04546032287662392</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.6836729077771587</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.14674646890079</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2611276447685056</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7720374120970145</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.0438105492686332</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.398057756839594</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.6384899330901819</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3550525695174128</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1800699105687865</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.04363936510479897</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.05624920142371705</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1538094076766151</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.3118847558124462</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2450492409783192</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.04373735434432879</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.6471724593469673</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.3632120899247971</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5497144114963294</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1165531040788511</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3692212816279852</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.3917269006259625</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8662261856642878</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5757720612121768</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4559633506473653</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2430004349205973</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.302168197087735</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.290113408702999</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.5046184459977188</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.07150170560541172</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.2553280564370127</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.1324695884985378</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.6205642408567321</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.1956802759580722</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.023847029656468</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6091766688359357</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.762648223432892</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.146770510390467</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.06648768096014179</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.263207243469541</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4790635922265227</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.5481802000433676</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.9204579442125941</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.04967038841688692</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7562988498490366</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.4026776064059114</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.578549808089248</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>-0.007356726493711278</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4182278506932534</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1973340879791247</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.09515869856087825</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.177998711971471</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.0469685249652001</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2488167580129436</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1866343377627765</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3439582285408053</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.04165589910452772</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4822727729859541</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.3384201881512151</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.009560031487984934</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.1129457607086585</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.05367062013501255</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.157044521667922</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6371311033986935</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3079705902732772</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3723501579392055</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2109730957286715</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3884211830105214</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4368727215254471</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3923404839850081</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.03981246193798176</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2856008405957142</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.0684433315261313</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4986610739261959</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2469823838047405</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1331648182745963</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1587660417726109</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.1722625996328963</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.1406412445312763</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7627765956504112</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3363829343618933</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7252301279775709</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4937441166912753</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.04126883836153047</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.1456916544103274</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.7664307536645084</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.2998048807832652</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.426440671974518</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.1419689452149135</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.2915453350420242</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.3713437126291311</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.3556286590311505</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.5605951771600927</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1123552963003135</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2243080744052293</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4254798244980614</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1165382376893639</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1583325036300449</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1521789993584694</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.569360445113241</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.01855460334030858</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4367145244177768</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1251906207538289</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.03947242167711067</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3814148503605921</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.2043323885228747</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.08670730363075757</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.1420763875349762</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.2002703138887154</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1310078761172726</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.05094188529778564</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4114107638808449</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2686293650178971</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3614668335065271</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1612507284907755</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2109816030085416</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.03331927322287292</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2276144320849005</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2386970160763223</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1096835662589411</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.008455107346893236</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.1931004246666951</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.1881505804784705</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5363054175706198</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6964599832365007</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9586554003637654</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2319805342501687</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.00863757486238</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1255538510052593</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.16483620989523</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2973603443983814</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.970027159725497</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8133378737037295</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1817297042045117</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7399135461940965</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.4757992195127049</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.3706162884222804</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.6108017087962211</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.1648511801301216</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.006151762914392</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.3675669391607069</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.03544066654640125</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.1919648037135029</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.469598733450949</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1.1625756297815</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.2152275780004374</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.07553433244628005</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.2248650726380873</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.1037858364867333</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>1.074327757238739</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.06011827164031763</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.05415722062375517</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>-0.2081991663733005</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.453823082618671</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.3617946226070841</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.02848634252418857</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.2810557516142552</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.5524098523050587</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.02368929146876028</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.4445764564599756</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.4506679293199415</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3077279902962423</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.520546146760053</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1781548152082673</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.5888574427012276</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1315273223770198</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.1843479005553375</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.4245378098063154</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.2472746602099415</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.920995559132502</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.8425003408959835</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.4670627812160968</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2610004034892385</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.190947106977982</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2.278390159383473</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.08394153976206589</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.5924790383673615</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2549783934109381</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.4274144980506033</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.728505338316798</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.2907485665859419</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.3955762362831144</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.1274367001182838</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.2784799740709583</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.8723656803611614</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2012967097957506</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.9426480729148766</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.09667798394717086</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.7487198868427897</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.8058899896829308</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.01411013676365782</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.2392093221994162</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.590111970822359</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.5214127543360438</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.8356453962262748</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.08670159251579304</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.4950788738433852</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.2156865689117531</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.296072513252286</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1251782489916073</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2494084850819336</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.09602363343151299</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5381565622491231</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.1349010672874311</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.1988864333653288</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.3506240968351451</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.2702960547698611</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3015286977695953</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.05219161007858224</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.3137139992496033</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1726852760485583</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.03814424368531343</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.2246139174228471</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.112753474951454</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.667444280730906</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.8014598137001331</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.692157196853052</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.6035348665184979</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.757652643649937</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.924574726573092</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.4070736486520242</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.112165947060012</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>2.906150882098157</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.065357406013133</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.691856381323313</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.4193656982131874</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>1.242997002793674</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1.008421656068488</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1333949623178583</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5540022977019</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1431456717273704</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3045610922911554</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1174569601006774</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1212131582807777</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.2854146192476535</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.04108061376173706</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.135523378139598</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1717683015054224</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.1269658271794698</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.4157475806115385</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.04928510875905166</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.2188629384198779</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.01245745064411255</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.2866620539520028</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2939644182744625</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.02305238339024707</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07213212018490074</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3284734672756198</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2433070224644115</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.09788378181728294</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1731580640110022</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.03106359248826299</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.05998342977153449</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.2293954312060401</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2397507893109614</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.0605897595029188</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.07328589636843132</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.152858051570735</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.04398256495187837</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9042624458149569</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3454733366807654</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6544206924178897</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1196375946841597</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.03103242924109105</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.5057667922151563</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.08886941207280347</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.3372934016362027</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.4550771646023725</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.01846303111365101</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.5828956164637442</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.1584460765647197</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.4186559281405822</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.1917239651057516</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
